--- a/Study 3/Shocks/GCAM/CP_EI - 2080.xlsx
+++ b/Study 3/Shocks/GCAM/CP_EI - 2080.xlsx
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.05082011282194434</v>
+        <v>0.05082011282194433</v>
       </c>
     </row>
     <row r="5">
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.1082597726732971</v>
+        <v>0.1082597726732972</v>
       </c>
     </row>
     <row r="6">
@@ -11762,7 +11762,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.008319170044065708</v>
+        <v>0.00831917004406571</v>
       </c>
     </row>
     <row r="12">
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.01588633148872602</v>
+        <v>0.01588633148872603</v>
       </c>
     </row>
     <row r="16">
@@ -12002,7 +12002,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.02605894425652502</v>
+        <v>0.02605894425652503</v>
       </c>
     </row>
     <row r="18">
@@ -12082,7 +12082,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.0669399551859331</v>
+        <v>0.06693995518593311</v>
       </c>
     </row>
     <row r="20">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.06667052843692509</v>
+        <v>0.06667052843692507</v>
       </c>
     </row>
     <row r="21">
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.03606688066869434</v>
+        <v>0.03606688066869435</v>
       </c>
     </row>
     <row r="22">
@@ -12242,7 +12242,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.2314503826980307</v>
+        <v>0.2314503826980308</v>
       </c>
     </row>
     <row r="24">
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.1212799608145617</v>
+        <v>0.1212799608145616</v>
       </c>
     </row>
     <row r="25">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.04864455824822993</v>
+        <v>0.04864455824822992</v>
       </c>
     </row>
     <row r="29">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.01537153404301618</v>
+        <v>0.01537153404301619</v>
       </c>
     </row>
     <row r="30">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.3583145246572577</v>
+        <v>0.3583145246572578</v>
       </c>
     </row>
   </sheetData>
